--- a/input/test1.xlsx
+++ b/input/test1.xlsx
@@ -62,10 +62,10 @@
     <t>Duty</t>
   </si>
   <si>
-    <t>Welfare</t>
-  </si>
-  <si>
-    <t>IGST</t>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>SWS</t>
   </si>
   <si>
     <t>Cus AIDC</t>
@@ -4889,7 +4889,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
